--- a/mbs-perturbation/bottleneck/elm/bottleneck_elm_tanh_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/bottleneck_elm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.54940755644981</v>
+        <v>0.7396907216494846</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.92018779342723</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6041666666666667</v>
+        <v>0.6505102040816327</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9184549356223176</v>
+        <v>0.8915094339622641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09523809523809525</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3852680767338909</v>
+        <v>0.6887559808612441</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8884120171673819</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4996153846153846</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9613733905579399</v>
+        <v>0.9198113207547169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5124007936507936</v>
+        <v>0.4959276018099548</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9203147353361946</v>
+        <v>0.9171450084152715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0327485380116959</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05541125541125541</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5101716956233091</v>
+        <v>0.6649769016804632</v>
       </c>
     </row>
   </sheetData>
